--- a/Thiết kế/Thiết kế giao diện/NgManDat/Chấm công Check in.xlsx
+++ b/Thiết kế/Thiết kế giao diện/NgManDat/Chấm công Check in.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\Thiết kế giao diện\NgManDat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NgManDat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB567CCA-38A2-4D79-A5CA-201B82D5F939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B96E75-663D-4F22-807F-A6A3091BED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93EB45F7-56C3-4B7A-8563-2AB1B894BB22}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Lb_MaNV</t>
   </si>
   <si>
-    <t>Hiển thị tmã nhân viên check in</t>
-  </si>
-  <si>
     <t>Lb_TrangThaiCheckIn</t>
   </si>
   <si>
@@ -235,13 +232,16 @@
   </si>
   <si>
     <t>Hủy thay đổi</t>
+  </si>
+  <si>
+    <t>Hiển thị mã nhân viên check in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +250,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -264,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -287,11 +294,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -305,12 +432,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9BE349-BC58-4389-A7FE-3D2DE67A1BE9}">
   <dimension ref="A31:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -710,8 +851,8 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="6"/>
@@ -719,21 +860,21 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -742,395 +883,457 @@
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="10">
         <v>1</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="10">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="10">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="10">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="10">
         <v>8</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="10">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="10">
         <v>10</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>11</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="10">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>2</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>3</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="D55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>13</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>10</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>11</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>14</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>15</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>16</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>17</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>17</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
